--- a/vuejpa/API 설계.xlsx
+++ b/vuejpa/API 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\vuejpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846BE1B-3568-4D48-A751-D55A919F7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0C5E84-254B-470E-9E12-826F1E974162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>METHOD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>controller.UserController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/signup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,7 +75,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>controller.ArticleController</t>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 하나 자세히 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 해당 게시판의 게시글 목록을 조회합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 특정 게시글을 조회합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/article/{article.pk}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 되어 있다면, 유저가 게시글을 등록 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 글 작성자가 맞다면, 게시글을 수정 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 글 작성자가 맞다면, 게시글을 삭제 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -119,14 +179,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,75 +548,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vuejpa/API 설계.xlsx
+++ b/vuejpa/API 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\vuejpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0C5E84-254B-470E-9E12-826F1E974162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5466E-2234-44EC-9170-1E3BE28C59E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29325" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
